--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3C874D-38EE-451C-9BEF-9DDDE92B216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EF040B-23A3-4900-8D71-5317972E93D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20424" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BI16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -794,25 +794,25 @@
         <v>0</v>
       </c>
       <c r="Y2" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z2" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA2" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB2" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC2" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD2" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE2" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF2" s="2">
         <v>0</v>
@@ -869,13 +869,13 @@
         <v>0</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA2" s="2">
         <v>0</v>
@@ -922,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -979,25 +979,25 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF3" s="2">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA3" s="2">
         <v>0</v>
@@ -1104,31 +1104,31 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z4" s="2">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF4" s="2">
         <v>0</v>
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z5" s="2">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF5" s="2">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL5" s="2">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1480,22 +1480,22 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA6" s="2">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="AD6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE6" s="2">
         <v>0</v>
@@ -1564,16 +1564,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK6" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL6" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM6" s="2">
         <v>0</v>
@@ -1749,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="AI7" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK7" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL7" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM7" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN7" s="2">
         <v>0</v>
@@ -1934,25 +1934,25 @@
         <v>0</v>
       </c>
       <c r="AI8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP8" s="2">
         <v>0</v>
@@ -2017,19 +2017,19 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -2122,19 +2122,19 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO9" s="2">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="W10" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X10" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y10" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z10" s="2">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="AK10" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL10" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM10" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN10" s="2">
         <v>0</v>
@@ -2450,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="V11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA11" s="2">
         <v>0</v>
@@ -2528,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="AV11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AX11" s="2">
         <v>0</v>
@@ -2590,13 +2590,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -2635,22 +2635,22 @@
         <v>0</v>
       </c>
       <c r="V12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB12" s="2">
         <v>0</v>
@@ -2707,19 +2707,19 @@
         <v>0</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AV12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY12" s="2">
         <v>0</v>
@@ -2772,22 +2772,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -2814,34 +2814,34 @@
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -2889,25 +2889,25 @@
         <v>0</v>
       </c>
       <c r="AS13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AV13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -2957,25 +2957,25 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -3002,31 +3002,31 @@
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AO14" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP14" s="2">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AV14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -3145,25 +3145,25 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="W15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA15" s="2">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="AN15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP15" s="2">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="AV15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY15" s="2">
         <v>0</v>
@@ -3333,19 +3333,19 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3411,25 +3411,25 @@
         <v>0</v>
       </c>
       <c r="AH16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AM16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO16" s="2">
         <v>0</v>

--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EF040B-23A3-4900-8D71-5317972E93D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B9132-8D84-46D9-8A87-9ECFE455BF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20424" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="1428" yWindow="396" windowWidth="10596" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN17" sqref="AN17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AY13" sqref="AY13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR2" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS2" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU2" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV2" s="2">
         <v>0</v>
@@ -976,31 +976,31 @@
         <v>0</v>
       </c>
       <c r="X3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="2">
         <v>11</v>
       </c>
       <c r="Z3" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AA3" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AB3" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AC3" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AD3" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AE3" s="2">
         <v>11</v>
       </c>
       <c r="AF3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG3" s="2">
         <v>0</v>
@@ -1030,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="AP3" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ3" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR3" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS3" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU3" s="2">
         <v>0</v>
@@ -1161,31 +1161,31 @@
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y4" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Z4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AB4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE4" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AF4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG4" s="2">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT4" s="2">
         <v>0</v>
@@ -1319,16 +1319,16 @@
         <v>11</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
@@ -1346,31 +1346,31 @@
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y5" s="2">
         <v>11</v>
       </c>
       <c r="Z5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AB5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE5" s="2">
         <v>11</v>
       </c>
       <c r="AF5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG5" s="2">
         <v>0</v>
@@ -1400,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="AP5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS5" s="2">
         <v>0</v>
@@ -1501,22 +1501,22 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z6" s="2">
         <v>11</v>
@@ -1552,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="AE6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF6" s="2">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1868,28 +1868,28 @@
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2053,28 +2053,28 @@
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R9" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S9" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T9" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2426,22 +2426,22 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
@@ -2865,13 +2865,13 @@
         <v>0</v>
       </c>
       <c r="AK13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AL13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AN13" s="2">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>11</v>
       </c>
       <c r="AY13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -3047,19 +3047,19 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AL14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AN14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO14" s="2">
         <v>20</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2">
         <v>11</v>
@@ -3089,10 +3089,10 @@
         <v>11</v>
       </c>
       <c r="AX14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -3229,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="AI15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AJ15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AL15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AN15" s="2">
         <v>20</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="AV15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
         <v>0</v>

--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B9132-8D84-46D9-8A87-9ECFE455BF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80EEDF5-0960-458B-BF8E-65FFBC619FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="396" windowWidth="10596" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="19872" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AY13" sqref="AY13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="AO2" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP2" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ2" s="2">
         <v>31</v>
@@ -1024,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="AN3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP3" s="2">
         <v>31</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
@@ -1125,10 +1125,10 @@
         <v>10</v>
       </c>
       <c r="L4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO4" s="2">
         <v>31</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
@@ -1301,16 +1301,16 @@
         <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2">
         <v>10</v>
       </c>
       <c r="K5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>11</v>
@@ -1331,10 +1331,10 @@
         <v>31</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="AN5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO5" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP5" s="2">
         <v>31</v>
@@ -1480,25 +1480,25 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>11</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N6" s="2">
         <v>31</v>
@@ -1519,10 +1519,10 @@
         <v>31</v>
       </c>
       <c r="T6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="AO6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR6" s="2">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M7" s="2">
         <v>31</v>
@@ -1707,10 +1707,10 @@
         <v>31</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V7" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W7" s="2">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M8" s="2">
         <v>31</v>
@@ -1892,10 +1892,10 @@
         <v>31</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V8" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M9" s="2">
         <v>31</v>
@@ -2077,10 +2077,10 @@
         <v>31</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V9" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W9" s="2">
         <v>0</v>
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M10" s="2">
         <v>31</v>
@@ -2262,19 +2262,19 @@
         <v>31</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V10" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W10" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="2">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N11" s="2">
         <v>31</v>
@@ -2444,25 +2444,25 @@
         <v>31</v>
       </c>
       <c r="T11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V11" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="2">
         <v>0</v>
@@ -2498,10 +2498,10 @@
         <v>0</v>
       </c>
       <c r="AL11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN11" s="2">
         <v>0</v>
@@ -2528,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="AV11" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="2">
         <v>0</v>
@@ -2590,13 +2590,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O12" s="2">
         <v>31</v>
@@ -2626,16 +2626,16 @@
         <v>31</v>
       </c>
       <c r="S12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2">
         <v>10</v>
@@ -2647,10 +2647,10 @@
         <v>10</v>
       </c>
       <c r="Z12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="2">
         <v>0</v>
@@ -2677,19 +2677,19 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -2707,19 +2707,19 @@
         <v>0</v>
       </c>
       <c r="AT12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
         <v>0</v>
@@ -2781,13 +2781,13 @@
         <v>10</v>
       </c>
       <c r="I13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -2814,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V13" s="2">
         <v>10</v>
@@ -2835,13 +2835,13 @@
         <v>10</v>
       </c>
       <c r="AA13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -2859,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="AI13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK13" s="2">
         <v>31</v>
@@ -2889,22 +2889,22 @@
         <v>0</v>
       </c>
       <c r="AS13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
         <v>0</v>
@@ -2969,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2">
         <v>10</v>
@@ -3020,13 +3020,13 @@
         <v>10</v>
       </c>
       <c r="AA14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="AH14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ14" s="2">
         <v>31</v>
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="2">
         <v>0</v>
@@ -3157,13 +3157,13 @@
         <v>10</v>
       </c>
       <c r="K15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>10</v>
       </c>
       <c r="AA15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB15" s="2">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI15" s="2">
         <v>31</v>
@@ -3345,7 +3345,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>

--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80EEDF5-0960-458B-BF8E-65FFBC619FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8C64B9-3214-4F41-A2E2-BC3997C45871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="19872" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -140,6 +140,82 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -524,18 +600,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" customWidth="1"/>
+    <col min="1" max="100" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -720,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -794,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="Y2" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z2" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA2" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB2" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC2" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD2" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE2" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF2" s="2">
         <v>0</v>
@@ -842,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="AO2" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP2" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ2" s="2">
         <v>31</v>
@@ -905,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -976,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="X3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z3" s="2">
         <v>31</v>
@@ -997,10 +1074,10 @@
         <v>31</v>
       </c>
       <c r="AE3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG3" s="2">
         <v>0</v>
@@ -1024,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="AN3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP3" s="2">
         <v>31</v>
@@ -1090,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1161,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y4" s="2">
         <v>31</v>
@@ -1185,7 +1262,7 @@
         <v>31</v>
       </c>
       <c r="AF4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG4" s="2">
         <v>0</v>
@@ -1209,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO4" s="2">
         <v>31</v>
@@ -1275,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1313,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" s="2">
         <v>31</v>
@@ -1331,10 +1408,10 @@
         <v>31</v>
       </c>
       <c r="S5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1346,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z5" s="2">
         <v>31</v>
@@ -1367,10 +1444,10 @@
         <v>31</v>
       </c>
       <c r="AE5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG5" s="2">
         <v>0</v>
@@ -1394,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="AN5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP5" s="2">
         <v>31</v>
@@ -1460,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1495,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N6" s="2">
         <v>31</v>
@@ -1519,10 +1596,10 @@
         <v>31</v>
       </c>
       <c r="T6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
@@ -1534,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA6" s="2">
         <v>0</v>
@@ -1549,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="AD6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF6" s="2">
         <v>0</v>
@@ -1582,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="AO6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR6" s="2">
         <v>0</v>
@@ -1645,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1677,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L7" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="2">
         <v>31</v>
@@ -1707,10 +1784,10 @@
         <v>31</v>
       </c>
       <c r="U7" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V7" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W7" s="2">
         <v>0</v>
@@ -1830,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1862,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L8" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M8" s="2">
         <v>31</v>
@@ -1892,10 +1969,10 @@
         <v>31</v>
       </c>
       <c r="U8" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V8" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
@@ -2015,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2047,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L9" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M9" s="2">
         <v>31</v>
@@ -2077,10 +2154,10 @@
         <v>31</v>
       </c>
       <c r="U9" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V9" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W9" s="2">
         <v>0</v>
@@ -2200,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2232,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L10" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="2">
         <v>31</v>
@@ -2262,10 +2339,10 @@
         <v>31</v>
       </c>
       <c r="U10" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V10" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
@@ -2385,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2420,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N11" s="2">
         <v>31</v>
@@ -2444,10 +2521,10 @@
         <v>31</v>
       </c>
       <c r="T11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
@@ -2498,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="AL11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN11" s="2">
         <v>0</v>
@@ -2570,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2608,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O12" s="2">
         <v>31</v>
@@ -2626,10 +2703,10 @@
         <v>31</v>
       </c>
       <c r="S12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -2677,19 +2754,19 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -2755,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -2859,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="AI13" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ13" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK13" s="2">
         <v>31</v>
@@ -2940,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -3041,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="AH14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ14" s="2">
         <v>31</v>
@@ -3125,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -3226,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI15" s="2">
         <v>31</v>
@@ -3310,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -3498,28 +3575,28 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI16">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>11</formula>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80EEDF5-0960-458B-BF8E-65FFBC619FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB2A574-8700-45C2-8FDA-538A2C7C07CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="19872" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="28680" yWindow="-9000" windowWidth="16440" windowHeight="28320" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -188,6 +188,92 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,16 +612,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" customWidth="1"/>
+    <col min="1" max="100" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -720,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -905,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1090,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1275,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1460,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1645,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1830,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2015,9 +2101,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -2200,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2385,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2570,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2755,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -2940,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -3125,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -3310,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -3498,29 +3584,32 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI16">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A2BE76-1F18-43C2-8B80-FC63A89EF21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F60DED-E3EF-4C43-9371-B0B159BB1595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="19560" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,7 +732,7 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+      <selection activeCell="Y6" sqref="Y6:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2698,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="AI11" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="5">
         <v>13</v>

--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F60DED-E3EF-4C43-9371-B0B159BB1595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E950C30A-8D3B-4BFB-AE16-A7B0AD56DF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="19560" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="1152" yWindow="720" windowWidth="10596" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,8 +731,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6:Z6"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV6" sqref="AV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1465,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="BE4" s="5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BF4" s="5">
         <v>31</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="BF5" s="5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BG5" s="5">
         <v>31</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="BG6" s="5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BH6" s="5">
         <v>31</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="BH7" s="5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BI7" s="7">
         <v>31</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT8" s="5">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="AV8" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AW8" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AX8" s="5">
         <v>31</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.45">
@@ -2351,19 +2351,19 @@
         <v>0</v>
       </c>
       <c r="AR9" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS9" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT9" s="5">
         <v>0</v>
       </c>
       <c r="AU9" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AV9" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AW9" s="5">
         <v>31</v>
@@ -2533,19 +2533,19 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR10" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS10" s="5">
         <v>0</v>
       </c>
       <c r="AT10" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU10" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AV10" s="5">
         <v>31</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="AP11" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ11" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR11" s="5">
         <v>0</v>
       </c>
       <c r="AS11" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT11" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU11" s="5">
         <v>31</v>
@@ -2900,16 +2900,16 @@
         <v>0</v>
       </c>
       <c r="AP12" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ12" s="5">
         <v>0</v>
       </c>
       <c r="AR12" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AS12" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT12" s="5">
         <v>31</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR13" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AS13" s="5">
         <v>31</v>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR14" s="5">
         <v>31</v>

--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E950C30A-8D3B-4BFB-AE16-A7B0AD56DF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E235F969-D7C2-4866-86EC-29B0E70B69ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="720" windowWidth="10596" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,209 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -731,16 +933,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV6" sqref="AV6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BN11" sqref="BN11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" customWidth="1"/>
+    <col min="1" max="100" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11">
         <v>0</v>
       </c>
@@ -925,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1110,12 +1312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -1295,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -1432,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="5">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AU4" s="5">
         <v>0</v>
@@ -1480,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>13</v>
       </c>
@@ -1665,7 +1867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>31</v>
       </c>
@@ -1850,7 +2052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>0</v>
       </c>
@@ -2035,7 +2237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>0</v>
       </c>
@@ -2220,7 +2422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>0</v>
       </c>
@@ -2405,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>0</v>
       </c>
@@ -2590,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>0</v>
       </c>
@@ -2775,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -2960,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>0</v>
       </c>
@@ -3145,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>31</v>
       </c>
@@ -3330,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <v>31</v>
       </c>
@@ -3515,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:61" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="8">
         <v>31</v>
       </c>
@@ -3703,32 +3905,38 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI16">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F4974E-C91B-40C3-A365-EB3911178C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23590D98-AB73-4C33-9D94-456BF2688810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,17 +130,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -233,93 +223,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -329,93 +233,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -757,16 +575,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="100" width="3.125" customWidth="1"/>
+    <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -923,35 +741,8 @@
       <c r="AZ1" s="1">
         <v>0</v>
       </c>
-      <c r="BA1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1108,35 +899,17 @@
       <c r="AZ2" s="3">
         <v>30</v>
       </c>
-      <c r="BA2" s="3">
-        <v>30</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>30</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>30</v>
-      </c>
-      <c r="BD2" s="3">
-        <v>30</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="3">
-        <v>0</v>
-      </c>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1293,35 +1066,17 @@
       <c r="AZ3" s="3">
         <v>30</v>
       </c>
-      <c r="BA3" s="3">
-        <v>30</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>30</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>30</v>
-      </c>
-      <c r="BD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1478,35 +1233,17 @@
       <c r="AZ4" s="3">
         <v>30</v>
       </c>
-      <c r="BA4" s="3">
-        <v>30</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>30</v>
-      </c>
-      <c r="BC4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1663,35 +1400,17 @@
       <c r="AZ5" s="3">
         <v>30</v>
       </c>
-      <c r="BA5" s="3">
-        <v>30</v>
-      </c>
-      <c r="BB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1848,35 +1567,17 @@
       <c r="AZ6" s="3">
         <v>30</v>
       </c>
-      <c r="BA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2033,35 +1734,17 @@
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
-      <c r="BA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2218,35 +1901,17 @@
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
-      <c r="BA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2403,35 +2068,17 @@
       <c r="AZ9" s="2">
         <v>0</v>
       </c>
-      <c r="BA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2588,35 +2235,17 @@
       <c r="AZ10" s="2">
         <v>0</v>
       </c>
-      <c r="BA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2773,35 +2402,17 @@
       <c r="AZ11" s="2">
         <v>0</v>
       </c>
-      <c r="BA11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2958,35 +2569,17 @@
       <c r="AZ12" s="2">
         <v>0</v>
       </c>
-      <c r="BA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -3143,35 +2736,17 @@
       <c r="AZ13" s="2">
         <v>0</v>
       </c>
-      <c r="BA13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -3328,35 +2903,17 @@
       <c r="AZ14" s="2">
         <v>0</v>
       </c>
-      <c r="BA14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -3513,35 +3070,17 @@
       <c r="AZ15" s="2">
         <v>0</v>
       </c>
-      <c r="BA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -3698,69 +3237,51 @@
       <c r="AZ16" s="2">
         <v>0</v>
       </c>
-      <c r="BA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI16" s="2">
-        <v>0</v>
-      </c>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI16">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
-      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B819E2D-9B7F-429B-A8AF-2F7C10A9B136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7643377B-7AE9-4AB6-8EDF-20F5B91CD1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,10 +697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BM21"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BH9" sqref="BH9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -712,7 +708,7 @@
     <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:63" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -899,17 +895,11 @@
       <c r="BJ1" s="5">
         <v>0</v>
       </c>
-      <c r="BK1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BL1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BM1" s="6">
+      <c r="BK1" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1099,14 +1089,8 @@
       <c r="BK2" s="1">
         <v>0</v>
       </c>
-      <c r="BL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1296,14 +1280,8 @@
       <c r="BK3" s="1">
         <v>0</v>
       </c>
-      <c r="BL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>31</v>
       </c>
@@ -1493,14 +1471,8 @@
       <c r="BK4" s="1">
         <v>20</v>
       </c>
-      <c r="BL4" s="1">
-        <v>20</v>
-      </c>
-      <c r="BM4" s="1">
-        <v>20</v>
-      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -1690,14 +1662,8 @@
       <c r="BK5" s="1">
         <v>20</v>
       </c>
-      <c r="BL5" s="1">
-        <v>20</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>20</v>
-      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>31</v>
       </c>
@@ -1771,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA6" s="1">
         <v>20</v>
@@ -1792,10 +1758,10 @@
         <v>20</v>
       </c>
       <c r="AF6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="1">
         <v>0</v>
@@ -1825,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR6" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS6" s="1">
         <v>31</v>
@@ -1884,17 +1850,11 @@
       <c r="BJ6" s="1">
         <v>31</v>
       </c>
-      <c r="BK6" s="1">
-        <v>31</v>
-      </c>
-      <c r="BL6" s="1">
-        <v>31</v>
-      </c>
-      <c r="BM6" s="2">
+      <c r="BK6" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>31</v>
       </c>
@@ -1950,31 +1910,31 @@
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U7" s="1">
         <v>31</v>
       </c>
       <c r="V7" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="W7" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="X7" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y7" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z7" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AA7" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AB7" s="1">
         <v>20</v>
@@ -1986,19 +1946,19 @@
         <v>20</v>
       </c>
       <c r="AE7" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AF7" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AG7" s="1">
         <v>13</v>
       </c>
       <c r="AH7" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>0</v>
@@ -2049,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BA7" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BB7" s="1">
         <v>30</v>
@@ -2081,17 +2041,11 @@
       <c r="BJ7" s="1">
         <v>30</v>
       </c>
-      <c r="BK7" s="1">
+      <c r="BK7" s="2">
         <v>30</v>
       </c>
-      <c r="BL7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BM7" s="2">
-        <v>30</v>
-      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>31</v>
       </c>
@@ -2144,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T8" s="1">
         <v>31</v>
@@ -2159,40 +2113,40 @@
         <v>31</v>
       </c>
       <c r="W8" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="X8" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Y8" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z8" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA8" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AB8" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AC8" s="1">
         <v>20</v>
       </c>
       <c r="AD8" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE8" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AF8" s="1">
         <v>13</v>
       </c>
       <c r="AG8" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
@@ -2204,19 +2158,19 @@
         <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN8" s="1">
         <v>8</v>
       </c>
       <c r="AO8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
         <v>0</v>
@@ -2249,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BB8" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BC8" s="1">
         <v>30</v>
@@ -2278,17 +2232,11 @@
       <c r="BJ8" s="1">
         <v>30</v>
       </c>
-      <c r="BK8" s="1">
+      <c r="BK8" s="2">
         <v>30</v>
       </c>
-      <c r="BL8" s="1">
-        <v>30</v>
-      </c>
-      <c r="BM8" s="2">
-        <v>30</v>
-      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>31</v>
       </c>
@@ -2341,55 +2289,55 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T9" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U9" s="1">
         <v>31</v>
       </c>
       <c r="V9" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="W9" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="X9" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Y9" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="1">
         <v>10</v>
       </c>
-      <c r="Z9" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>13</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>13</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>13</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>13</v>
-      </c>
       <c r="AE9" s="1">
         <v>13</v>
       </c>
       <c r="AF9" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AG9" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="1">
         <v>0</v>
@@ -2401,19 +2349,19 @@
         <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN9" s="1">
         <v>8</v>
       </c>
       <c r="AO9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="1">
         <v>0</v>
@@ -2452,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="BC9" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BD9" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BE9" s="1">
         <v>30</v>
@@ -2475,17 +2423,11 @@
       <c r="BJ9" s="1">
         <v>30</v>
       </c>
-      <c r="BK9" s="1">
+      <c r="BK9" s="2">
         <v>30</v>
       </c>
-      <c r="BL9" s="1">
-        <v>30</v>
-      </c>
-      <c r="BM9" s="2">
-        <v>30</v>
-      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -2538,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T10" s="1">
         <v>31</v>
@@ -2553,10 +2495,10 @@
         <v>31</v>
       </c>
       <c r="W10" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="X10" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Y10" s="1">
         <v>10</v>
@@ -2577,13 +2519,13 @@
         <v>10</v>
       </c>
       <c r="AE10" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF10" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="1">
         <v>0</v>
@@ -2598,19 +2540,19 @@
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN10" s="1">
         <v>8</v>
       </c>
       <c r="AO10" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="1">
         <v>0</v>
@@ -2655,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="BE10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BF10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BG10" s="1">
         <v>30</v>
@@ -2672,17 +2614,11 @@
       <c r="BJ10" s="1">
         <v>30</v>
       </c>
-      <c r="BK10" s="1">
+      <c r="BK10" s="2">
         <v>30</v>
       </c>
-      <c r="BL10" s="1">
-        <v>30</v>
-      </c>
-      <c r="BM10" s="2">
-        <v>30</v>
-      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -2738,25 +2674,25 @@
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U11" s="1">
         <v>31</v>
       </c>
       <c r="V11" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="W11" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="X11" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y11" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z11" s="1">
         <v>10</v>
@@ -2774,13 +2710,13 @@
         <v>10</v>
       </c>
       <c r="AE11" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF11" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="1">
         <v>0</v>
@@ -2798,25 +2734,25 @@
         <v>0</v>
       </c>
       <c r="AM11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN11" s="1">
         <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="1">
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AR11" s="1">
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2858,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="BG11" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BH11" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BI11" s="1">
         <v>30</v>
@@ -2869,17 +2805,11 @@
       <c r="BJ11" s="1">
         <v>30</v>
       </c>
-      <c r="BK11" s="1">
+      <c r="BK11" s="2">
         <v>30</v>
       </c>
-      <c r="BL11" s="1">
-        <v>30</v>
-      </c>
-      <c r="BM11" s="2">
-        <v>30</v>
-      </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -2941,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W12" s="1">
         <v>13</v>
       </c>
       <c r="X12" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y12" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z12" s="1">
         <v>10</v>
@@ -2965,207 +2895,201 @@
         <v>10</v>
       </c>
       <c r="AC12" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>13</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>13</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>30</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>30</v>
+      </c>
+      <c r="BK12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>13</v>
+      </c>
+      <c r="W13" s="1">
+        <v>13</v>
+      </c>
+      <c r="X13" s="1">
         <v>10</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="Y13" s="1">
         <v>10</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>13</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>13</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>13</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="1">
-        <v>30</v>
-      </c>
-      <c r="BL12" s="1">
-        <v>30</v>
-      </c>
-      <c r="BM12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0</v>
-      </c>
-      <c r="X13" s="1">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>13</v>
       </c>
       <c r="Z13" s="1">
         <v>10</v>
       </c>
       <c r="AA13" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB13" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AC13" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>0</v>
@@ -3263,17 +3187,11 @@
       <c r="BJ13" s="1">
         <v>0</v>
       </c>
-      <c r="BK13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="2">
+      <c r="BK13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -3313,13 +3231,13 @@
       <c r="M14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
+      <c r="N14" s="10">
+        <v>2</v>
       </c>
       <c r="O14" s="1">
-        <v>2</v>
-      </c>
-      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>0</v>
       </c>
       <c r="Q14" s="1">
@@ -3341,1318 +3259,1276 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y14" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z14" s="1">
         <v>10</v>
       </c>
       <c r="AA14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>13</v>
+      </c>
+      <c r="X15" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="1">
         <v>10</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="Z15" s="1">
         <v>10</v>
       </c>
-      <c r="AC14" s="1">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>31</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM14" s="2">
+      <c r="AA15" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>13</v>
-      </c>
-      <c r="AA15" s="1">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="1">
         <v>10</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="Z16" s="1">
         <v>10</v>
       </c>
-      <c r="AC15" s="1">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>31</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>31</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>31</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="2">
+      <c r="AA16" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>13</v>
-      </c>
-      <c r="AA16" s="1">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="1">
         <v>10</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="Z17" s="1">
         <v>10</v>
       </c>
-      <c r="AC16" s="1">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>31</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>31</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>31</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM16" s="2">
+      <c r="AA17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>31</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1">
-        <v>20</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>10</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>10</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>31</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>31</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>31</v>
-      </c>
-      <c r="AN17" s="1">
-        <v>31</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM17" s="2">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1">
+        <v>20</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1">
-        <v>31</v>
-      </c>
-      <c r="F18" s="1">
-        <v>31</v>
-      </c>
-      <c r="G18" s="1">
-        <v>20</v>
-      </c>
-      <c r="H18" s="1">
-        <v>20</v>
-      </c>
-      <c r="I18" s="1">
-        <v>20</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>13</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>13</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>31</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>31</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>31</v>
-      </c>
-      <c r="AN18" s="1">
-        <v>31</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="2">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1">
+        <v>31</v>
+      </c>
+      <c r="I19" s="1">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>31</v>
+      </c>
+      <c r="R19" s="1">
+        <v>31</v>
+      </c>
+      <c r="S19" s="1">
+        <v>31</v>
+      </c>
+      <c r="T19" s="1">
+        <v>31</v>
+      </c>
+      <c r="U19" s="1">
+        <v>31</v>
+      </c>
+      <c r="V19" s="1">
+        <v>31</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>31</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1">
-        <v>31</v>
-      </c>
-      <c r="F19" s="1">
-        <v>31</v>
-      </c>
-      <c r="G19" s="1">
-        <v>31</v>
-      </c>
-      <c r="H19" s="1">
-        <v>31</v>
-      </c>
-      <c r="I19" s="1">
-        <v>20</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>31</v>
-      </c>
-      <c r="T19" s="1">
-        <v>31</v>
-      </c>
-      <c r="U19" s="1">
-        <v>31</v>
-      </c>
-      <c r="V19" s="1">
-        <v>31</v>
-      </c>
-      <c r="W19" s="1">
-        <v>31</v>
-      </c>
-      <c r="X19" s="1">
-        <v>31</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AL19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AN19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AO19" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM19" s="2">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1">
+        <v>31</v>
+      </c>
+      <c r="H20" s="1">
+        <v>31</v>
+      </c>
+      <c r="I20" s="1">
+        <v>20</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>31</v>
+      </c>
+      <c r="P20" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>31</v>
+      </c>
+      <c r="R20" s="1">
+        <v>31</v>
+      </c>
+      <c r="S20" s="1">
+        <v>31</v>
+      </c>
+      <c r="T20" s="1">
+        <v>31</v>
+      </c>
+      <c r="U20" s="1">
+        <v>31</v>
+      </c>
+      <c r="V20" s="1">
+        <v>31</v>
+      </c>
+      <c r="W20" s="1">
+        <v>31</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>31</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1">
-        <v>31</v>
-      </c>
-      <c r="F20" s="1">
-        <v>31</v>
-      </c>
-      <c r="G20" s="1">
-        <v>31</v>
-      </c>
-      <c r="H20" s="1">
-        <v>31</v>
-      </c>
-      <c r="I20" s="1">
-        <v>20</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>31</v>
-      </c>
-      <c r="R20" s="1">
-        <v>31</v>
-      </c>
-      <c r="S20" s="1">
-        <v>31</v>
-      </c>
-      <c r="T20" s="1">
-        <v>31</v>
-      </c>
-      <c r="U20" s="1">
-        <v>31</v>
-      </c>
-      <c r="V20" s="1">
-        <v>31</v>
-      </c>
-      <c r="W20" s="1">
-        <v>31</v>
-      </c>
-      <c r="X20" s="1">
-        <v>31</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>31</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:65" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:63" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -4693,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O21" s="3">
         <v>31</v>
@@ -4768,10 +4644,10 @@
         <v>31</v>
       </c>
       <c r="AM21" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="3">
         <v>0</v>
@@ -4839,19 +4715,13 @@
       <c r="BJ21" s="3">
         <v>0</v>
       </c>
-      <c r="BK21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM21" s="4">
+      <c r="BK21" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A22:XFD1048576 BN1:XFD21 A1:BK21">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>51</formula>
     </cfRule>

--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7643377B-7AE9-4AB6-8EDF-20F5B91CD1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43A869-A7BD-4ECC-B809-AD5DE34CBDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -699,16 +699,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" customWidth="1"/>
+    <col min="1" max="100" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:63" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>31</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>31</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>31</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>31</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>31</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -2737,61 +2737,61 @@
         <v>4</v>
       </c>
       <c r="AN11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AP11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ11" s="1">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="AR11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BD11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BF11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG11" s="1">
         <v>30</v>
@@ -2809,7 +2809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AR12" s="1">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -3191,15 +3191,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>31</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>31</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>31</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>31</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>31</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:63" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:63" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -4721,7 +4721,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A22:XFD1048576 BN1:XFD21 A1:BK21">
+  <conditionalFormatting sqref="BN1:XFD21 A22:XFD1048576 A1:BK21">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>51</formula>
     </cfRule>

--- a/Excel/SecondStage.xlsx
+++ b/Excel/SecondStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43A869-A7BD-4ECC-B809-AD5DE34CBDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8C771B-EEDD-4E7F-A35B-5B4D4F9A0970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -110,22 +110,22 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -140,9 +140,57 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -155,59 +203,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -697,435 +695,423 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS6" sqref="AS6:BI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="100" width="3.125" customWidth="1"/>
+    <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5">
+    <row r="1" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7">
         <v>0</v>
       </c>
       <c r="F1" s="7">
         <v>0</v>
       </c>
-      <c r="G1" s="5">
-        <v>0</v>
-      </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1" s="5">
-        <v>0</v>
-      </c>
-      <c r="L1" s="5">
-        <v>0</v>
-      </c>
-      <c r="M1" s="5">
-        <v>0</v>
-      </c>
-      <c r="N1" s="5">
-        <v>0</v>
-      </c>
-      <c r="O1" s="5">
-        <v>0</v>
-      </c>
-      <c r="P1" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>0</v>
-      </c>
-      <c r="R1" s="5">
-        <v>0</v>
-      </c>
-      <c r="S1" s="5">
-        <v>0</v>
-      </c>
-      <c r="T1" s="5">
-        <v>0</v>
-      </c>
-      <c r="U1" s="5">
-        <v>0</v>
-      </c>
-      <c r="V1" s="5">
-        <v>0</v>
-      </c>
-      <c r="W1" s="5">
-        <v>0</v>
-      </c>
-      <c r="X1" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BC1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BE1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BG1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BI1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BK1" s="6">
+      <c r="G1" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7">
+        <v>0</v>
+      </c>
+      <c r="J1" s="7">
+        <v>0</v>
+      </c>
+      <c r="K1" s="7">
+        <v>0</v>
+      </c>
+      <c r="L1" s="7">
+        <v>0</v>
+      </c>
+      <c r="M1" s="7">
+        <v>0</v>
+      </c>
+      <c r="N1" s="7">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="7">
+        <v>0</v>
+      </c>
+      <c r="R1" s="7">
+        <v>0</v>
+      </c>
+      <c r="S1" s="7">
+        <v>0</v>
+      </c>
+      <c r="T1" s="7">
+        <v>0</v>
+      </c>
+      <c r="U1" s="7">
+        <v>0</v>
+      </c>
+      <c r="V1" s="7">
+        <v>0</v>
+      </c>
+      <c r="W1" s="7">
+        <v>0</v>
+      </c>
+      <c r="X1" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC1" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI1" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5">
+        <v>20</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
+        <v>20</v>
+      </c>
+      <c r="S2" s="5">
+        <v>20</v>
+      </c>
+      <c r="T2" s="5">
+        <v>20</v>
+      </c>
+      <c r="U2" s="5">
+        <v>20</v>
+      </c>
+      <c r="V2" s="5">
+        <v>20</v>
+      </c>
+      <c r="W2" s="5">
+        <v>20</v>
+      </c>
+      <c r="X2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AZ2" s="5">
+        <v>20</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>20</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>20</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>20</v>
+      </c>
+      <c r="BD2" s="5">
+        <v>20</v>
+      </c>
+      <c r="BE2" s="5">
+        <v>20</v>
+      </c>
+      <c r="BF2" s="5">
+        <v>20</v>
+      </c>
+      <c r="BG2" s="5">
+        <v>20</v>
+      </c>
+      <c r="BH2" s="5">
+        <v>20</v>
+      </c>
+      <c r="BI2" s="10">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>0</v>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>31</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1158,25 +1144,25 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD3" s="1">
         <v>0</v>
@@ -1194,162 +1180,156 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AN3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BB3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BC3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BD3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BE3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BF3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BG3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BH3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A4" s="9">
-        <v>31</v>
-      </c>
-      <c r="B4" s="9">
-        <v>31</v>
-      </c>
-      <c r="C4" s="9">
-        <v>31</v>
-      </c>
-      <c r="D4" s="9">
-        <v>31</v>
-      </c>
-      <c r="E4" s="9">
-        <v>31</v>
-      </c>
-      <c r="F4" s="9">
-        <v>31</v>
-      </c>
-      <c r="G4" s="9">
-        <v>31</v>
-      </c>
-      <c r="H4" s="9">
-        <v>31</v>
-      </c>
-      <c r="I4" s="9">
-        <v>31</v>
-      </c>
-      <c r="J4" s="9">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1">
         <v>31</v>
       </c>
       <c r="K4" s="1">
         <v>31</v>
       </c>
       <c r="L4" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="R4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="S4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="T4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V4" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="W4" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="X4" s="1">
         <v>20</v>
@@ -1367,22 +1347,22 @@
         <v>20</v>
       </c>
       <c r="AC4" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AD4" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE4" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AF4" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1">
         <v>20</v>
@@ -1391,89 +1371,83 @@
         <v>20</v>
       </c>
       <c r="AK4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AL4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AM4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AN4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AO4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AP4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AQ4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AR4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AS4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AT4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AU4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AV4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AW4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AX4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AY4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BA4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BB4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BC4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BD4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BE4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BF4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BG4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BH4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BI4" s="1">
-        <v>20</v>
-      </c>
-      <c r="BJ4" s="1">
-        <v>20</v>
-      </c>
-      <c r="BK4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>31</v>
       </c>
       <c r="B5" s="1">
@@ -1483,10 +1457,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>31</v>
@@ -1501,50 +1475,50 @@
         <v>31</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>31</v>
+      </c>
+      <c r="R5" s="1">
+        <v>31</v>
+      </c>
+      <c r="S5" s="1">
+        <v>31</v>
+      </c>
+      <c r="T5" s="1">
+        <v>31</v>
+      </c>
+      <c r="U5" s="1">
+        <v>10</v>
+      </c>
+      <c r="V5" s="1">
+        <v>10</v>
+      </c>
+      <c r="W5" s="1">
         <v>13</v>
       </c>
-      <c r="L5" s="1">
+      <c r="X5" s="1">
         <v>13</v>
       </c>
-      <c r="M5" s="1">
-        <v>31</v>
-      </c>
-      <c r="N5" s="1">
-        <v>20</v>
-      </c>
-      <c r="O5" s="1">
-        <v>20</v>
-      </c>
-      <c r="P5" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>20</v>
-      </c>
-      <c r="R5" s="1">
-        <v>20</v>
-      </c>
-      <c r="S5" s="1">
-        <v>20</v>
-      </c>
-      <c r="T5" s="1">
-        <v>20</v>
-      </c>
-      <c r="U5" s="1">
-        <v>20</v>
-      </c>
-      <c r="V5" s="1">
-        <v>20</v>
-      </c>
-      <c r="W5" s="1">
-        <v>20</v>
-      </c>
-      <c r="X5" s="1">
-        <v>20</v>
-      </c>
       <c r="Y5" s="1">
         <v>20</v>
       </c>
@@ -1555,28 +1529,28 @@
         <v>20</v>
       </c>
       <c r="AB5" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AC5" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AD5" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>20</v>
@@ -1597,165 +1571,159 @@
         <v>20</v>
       </c>
       <c r="AP5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AQ5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AR5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AS5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AT5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AU5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AV5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AW5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AX5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AY5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BA5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BB5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BC5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BD5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BE5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BF5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BG5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BH5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BI5" s="1">
-        <v>20</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>20</v>
-      </c>
-      <c r="BK5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>31</v>
       </c>
       <c r="C6" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>31</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1">
+        <v>20</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>31</v>
+      </c>
+      <c r="R6" s="1">
+        <v>25</v>
+      </c>
+      <c r="S6" s="1">
+        <v>31</v>
+      </c>
+      <c r="T6" s="1">
+        <v>31</v>
+      </c>
+      <c r="U6" s="1">
+        <v>10</v>
+      </c>
+      <c r="V6" s="1">
+        <v>10</v>
+      </c>
+      <c r="W6" s="1">
         <v>13</v>
       </c>
-      <c r="L6" s="1">
-        <v>31</v>
-      </c>
-      <c r="M6" s="1">
-        <v>20</v>
-      </c>
-      <c r="N6" s="1">
-        <v>20</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y6" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Z6" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AA6" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AB6" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC6" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AD6" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="1">
         <v>0</v>
@@ -1770,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1785,16 +1753,16 @@
         <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ6" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AR6" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AS6" s="1">
         <v>31</v>
@@ -1847,15 +1815,9 @@
       <c r="BI6" s="1">
         <v>31</v>
       </c>
-      <c r="BJ6" s="1">
-        <v>31</v>
-      </c>
-      <c r="BK6" s="2">
-        <v>31</v>
-      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>31</v>
       </c>
       <c r="B7" s="1">
@@ -1865,34 +1827,34 @@
         <v>31</v>
       </c>
       <c r="D7" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>31</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L7" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -1901,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S7" s="1">
         <v>31</v>
@@ -1916,7 +1878,7 @@
         <v>31</v>
       </c>
       <c r="U7" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="V7" s="1">
         <v>10</v>
@@ -1925,192 +1887,186 @@
         <v>10</v>
       </c>
       <c r="X7" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="1">
         <v>13</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>20</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>20</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>20</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>20</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>20</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>20</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>20</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>20</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>31</v>
+      </c>
+      <c r="R8" s="1">
+        <v>31</v>
+      </c>
+      <c r="S8" s="1">
+        <v>31</v>
+      </c>
+      <c r="T8" s="1">
         <v>13</v>
       </c>
-      <c r="Z7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE7" s="1">
+      <c r="U8" s="1">
         <v>13</v>
       </c>
-      <c r="AF7" s="1">
-        <v>13</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>13</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BF7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BJ7" s="1">
-        <v>30</v>
-      </c>
-      <c r="BK7" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>13</v>
-      </c>
-      <c r="J8" s="1">
-        <v>13</v>
-      </c>
-      <c r="K8" s="1">
-        <v>31</v>
-      </c>
-      <c r="L8" s="1">
-        <v>31</v>
-      </c>
-      <c r="M8" s="1">
-        <v>20</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>31</v>
-      </c>
-      <c r="S8" s="1">
-        <v>31</v>
-      </c>
-      <c r="T8" s="1">
-        <v>31</v>
-      </c>
-      <c r="U8" s="1">
-        <v>31</v>
-      </c>
       <c r="V8" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="W8" s="1">
         <v>10</v>
@@ -2119,28 +2075,28 @@
         <v>10</v>
       </c>
       <c r="Y8" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="1">
         <v>13</v>
       </c>
-      <c r="Z8" s="1">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>20</v>
-      </c>
       <c r="AD8" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -2152,19 +2108,19 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL8" s="1">
         <v>8</v>
       </c>
       <c r="AM8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>0</v>
@@ -2203,41 +2159,35 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="1">
-        <v>30</v>
-      </c>
-      <c r="BI8" s="1">
-        <v>30</v>
-      </c>
-      <c r="BJ8" s="1">
-        <v>30</v>
-      </c>
-      <c r="BK8" s="2">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
         <v>31</v>
       </c>
       <c r="B9" s="1">
@@ -2250,58 +2200,58 @@
         <v>31</v>
       </c>
       <c r="E9" s="1">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>50</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
         <v>13</v>
       </c>
-      <c r="F9" s="1">
+      <c r="T9" s="1">
         <v>13</v>
       </c>
-      <c r="G9" s="1">
+      <c r="U9" s="1">
         <v>13</v>
       </c>
-      <c r="H9" s="1">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1">
-        <v>31</v>
-      </c>
-      <c r="L9" s="1">
-        <v>20</v>
-      </c>
-      <c r="M9" s="1">
-        <v>20</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>31</v>
-      </c>
-      <c r="S9" s="1">
-        <v>31</v>
-      </c>
-      <c r="T9" s="1">
-        <v>25</v>
-      </c>
-      <c r="U9" s="1">
-        <v>31</v>
-      </c>
       <c r="V9" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="W9" s="1">
         <v>10</v>
@@ -2310,10 +2260,10 @@
         <v>10</v>
       </c>
       <c r="Y9" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z9" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA9" s="1">
         <v>13</v>
@@ -2325,174 +2275,168 @@
         <v>13</v>
       </c>
       <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>13</v>
+      </c>
+      <c r="U10" s="1">
+        <v>13</v>
+      </c>
+      <c r="V10" s="1">
         <v>10</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>13</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>13</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>8</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>8</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>8</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>30</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>30</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>30</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>30</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>30</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>30</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>30</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>30</v>
-      </c>
-      <c r="BK9" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1">
-        <v>31</v>
-      </c>
-      <c r="I10" s="1">
-        <v>31</v>
-      </c>
-      <c r="J10" s="1">
-        <v>31</v>
-      </c>
-      <c r="K10" s="1">
-        <v>20</v>
-      </c>
-      <c r="L10" s="1">
-        <v>20</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>31</v>
-      </c>
-      <c r="S10" s="1">
-        <v>31</v>
-      </c>
-      <c r="T10" s="1">
-        <v>31</v>
-      </c>
-      <c r="U10" s="1">
-        <v>31</v>
-      </c>
-      <c r="V10" s="1">
-        <v>31</v>
       </c>
       <c r="W10" s="1">
         <v>10</v>
@@ -2501,216 +2445,210 @@
         <v>10</v>
       </c>
       <c r="Y10" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>51</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>13</v>
+      </c>
+      <c r="V11" s="1">
         <v>10</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="W11" s="1">
         <v>10</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>10</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>13</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>8</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>8</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>8</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="1">
-        <v>30</v>
-      </c>
-      <c r="BF10" s="1">
-        <v>30</v>
-      </c>
-      <c r="BG10" s="1">
-        <v>30</v>
-      </c>
-      <c r="BH10" s="1">
-        <v>30</v>
-      </c>
-      <c r="BI10" s="1">
-        <v>30</v>
-      </c>
-      <c r="BJ10" s="1">
-        <v>30</v>
-      </c>
-      <c r="BK10" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1">
-        <v>20</v>
-      </c>
-      <c r="K11" s="1">
-        <v>20</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>50</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>31</v>
-      </c>
-      <c r="T11" s="1">
-        <v>31</v>
-      </c>
-      <c r="U11" s="1">
-        <v>31</v>
-      </c>
-      <c r="V11" s="1">
-        <v>13</v>
-      </c>
-      <c r="W11" s="1">
-        <v>13</v>
       </c>
       <c r="X11" s="1">
         <v>10</v>
       </c>
       <c r="Y11" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z11" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
         <v>0</v>
@@ -2734,114 +2672,108 @@
         <v>0</v>
       </c>
       <c r="AM11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>20</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>20</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>20</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>20</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>20</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>20</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>20</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>20</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="F12" s="1">
         <v>6</v>
       </c>
-      <c r="AT11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AZ11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BA11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BE11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BF11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BG11" s="1">
-        <v>30</v>
-      </c>
-      <c r="BH11" s="1">
-        <v>30</v>
-      </c>
-      <c r="BI11" s="1">
-        <v>30</v>
-      </c>
-      <c r="BJ11" s="1">
-        <v>30</v>
-      </c>
-      <c r="BK11" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -2877,40 +2809,40 @@
         <v>13</v>
       </c>
       <c r="W12" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X12" s="1">
         <v>10</v>
       </c>
       <c r="Y12" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AE12" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AF12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AG12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AI12" s="1">
         <v>0</v>
@@ -2934,89 +2866,83 @@
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ12" s="1">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="AR12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BA12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BB12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BC12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BD12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BE12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BF12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BG12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BH12" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BI12" s="1">
-        <v>30</v>
-      </c>
-      <c r="BJ12" s="1">
-        <v>30</v>
-      </c>
-      <c r="BK12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>0</v>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
@@ -3068,228 +2994,222 @@
         <v>13</v>
       </c>
       <c r="W13" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X13" s="1">
         <v>10</v>
       </c>
       <c r="Y13" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>20</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>31</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>31</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>31</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>31</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>31</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>31</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>31</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>31</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>31</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>13</v>
+      </c>
+      <c r="W14" s="1">
         <v>10</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>5</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="10">
-        <v>2</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <v>13</v>
       </c>
       <c r="X14" s="1">
         <v>10</v>
       </c>
       <c r="Y14" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z14" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AF14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AG14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH14" s="1">
         <v>31</v>
@@ -3298,7 +3218,7 @@
         <v>31</v>
       </c>
       <c r="AJ14" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
@@ -3310,105 +3230,99 @@
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BB14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BC14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BD14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BE14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BF14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BG14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BH14" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BI14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>20</v>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>31</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F15" s="1">
+        <v>31</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -3426,16 +3340,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -3456,25 +3370,25 @@
         <v>13</v>
       </c>
       <c r="Y15" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AF15" s="1">
         <v>31</v>
@@ -3492,117 +3406,111 @@
         <v>31</v>
       </c>
       <c r="AK15" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
       </c>
       <c r="AM15" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN15" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BB15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BC15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BD15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BE15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BF15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BG15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BH15" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BI15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
         <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F16" s="1">
+        <v>31</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -3614,22 +3522,22 @@
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -3644,25 +3552,25 @@
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="1">
         <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE16" s="1">
         <v>31</v>
@@ -3686,277 +3594,265 @@
         <v>31</v>
       </c>
       <c r="AL16" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AM16" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BA16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BB16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BC16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BD16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BE16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BF16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BG16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BH16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BI16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK16" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>31</v>
       </c>
       <c r="C17" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X17" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Y17" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Z17" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA17" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD17" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AE17" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AF17" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AG17" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AH17" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AI17" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AJ17" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AK17" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AL17" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AM17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BA17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BB17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BC17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BD17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BE17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BF17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BG17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BH17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BI17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK17" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
         <v>31</v>
       </c>
       <c r="B18" s="1">
@@ -3975,73 +3871,73 @@
         <v>31</v>
       </c>
       <c r="G18" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I18" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="W18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y18" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="Z18" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD18" s="1">
         <v>31</v>
@@ -4074,80 +3970,74 @@
         <v>31</v>
       </c>
       <c r="AN18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BA18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BB18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BC18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BD18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BE18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BF18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BG18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BH18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="2">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
         <v>31</v>
       </c>
       <c r="B19" s="1">
@@ -4172,28 +4062,28 @@
         <v>31</v>
       </c>
       <c r="I19" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="1">
         <v>31</v>
@@ -4214,22 +4104,22 @@
         <v>31</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC19" s="1">
         <v>31</v>
@@ -4265,80 +4155,74 @@
         <v>31</v>
       </c>
       <c r="AN19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BA19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BB19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BC19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BD19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BE19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BF19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BG19" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BH19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK19" s="2">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="BI19" s="2">
+        <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
         <v>31</v>
       </c>
       <c r="B20" s="1">
@@ -4363,22 +4247,22 @@
         <v>31</v>
       </c>
       <c r="I20" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O20" s="1">
         <v>31</v>
@@ -4408,13 +4292,13 @@
         <v>31</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA20" s="1">
         <v>31</v>
@@ -4456,80 +4340,74 @@
         <v>31</v>
       </c>
       <c r="AN20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BA20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BB20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BC20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BD20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BE20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BF20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BG20" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BH20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK20" s="2">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="BI20" s="2">
+        <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:63" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
         <v>31</v>
       </c>
       <c r="B21" s="1">
@@ -4554,205 +4432,384 @@
         <v>31</v>
       </c>
       <c r="I21" s="1">
-        <v>20</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>31</v>
-      </c>
-      <c r="O21" s="3">
-        <v>31</v>
-      </c>
-      <c r="P21" s="3">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>31</v>
-      </c>
-      <c r="R21" s="3">
-        <v>31</v>
-      </c>
-      <c r="S21" s="3">
-        <v>31</v>
-      </c>
-      <c r="T21" s="3">
-        <v>31</v>
-      </c>
-      <c r="U21" s="3">
-        <v>31</v>
-      </c>
-      <c r="V21" s="3">
-        <v>31</v>
-      </c>
-      <c r="W21" s="3">
-        <v>31</v>
-      </c>
-      <c r="X21" s="3">
-        <v>31</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>31</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AG21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AJ21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AK21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AL21" s="3">
-        <v>31</v>
-      </c>
-      <c r="AM21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK21" s="4">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="J21" s="1">
+        <v>31</v>
+      </c>
+      <c r="K21" s="1">
+        <v>31</v>
+      </c>
+      <c r="L21" s="1">
+        <v>31</v>
+      </c>
+      <c r="M21" s="1">
+        <v>31</v>
+      </c>
+      <c r="N21" s="1">
+        <v>31</v>
+      </c>
+      <c r="O21" s="1">
+        <v>31</v>
+      </c>
+      <c r="P21" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>31</v>
+      </c>
+      <c r="R21" s="1">
+        <v>31</v>
+      </c>
+      <c r="S21" s="1">
+        <v>31</v>
+      </c>
+      <c r="T21" s="1">
+        <v>31</v>
+      </c>
+      <c r="U21" s="1">
+        <v>31</v>
+      </c>
+      <c r="V21" s="1">
+        <v>31</v>
+      </c>
+      <c r="W21" s="1">
+        <v>31</v>
+      </c>
+      <c r="X21" s="1">
+        <v>31</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>31</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>31</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>31</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>31</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>31</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>31</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>31</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>31</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>31</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>31</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1">
+        <v>20</v>
+      </c>
+      <c r="L22" s="1">
+        <v>20</v>
+      </c>
+      <c r="M22" s="1">
+        <v>20</v>
+      </c>
+      <c r="N22" s="1">
+        <v>20</v>
+      </c>
+      <c r="O22" s="1">
+        <v>20</v>
+      </c>
+      <c r="P22" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>20</v>
+      </c>
+      <c r="R22" s="1">
+        <v>20</v>
+      </c>
+      <c r="S22" s="1">
+        <v>20</v>
+      </c>
+      <c r="T22" s="1">
+        <v>20</v>
+      </c>
+      <c r="U22" s="1">
+        <v>20</v>
+      </c>
+      <c r="V22" s="1">
+        <v>20</v>
+      </c>
+      <c r="W22" s="1">
+        <v>20</v>
+      </c>
+      <c r="X22" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>20</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>20</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>20</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>20</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>20</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>20</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>20</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>20</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="BN1:XFD21 A22:XFD1048576 A1:BK21">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
